--- a/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-4,19; 2,84</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 4,11</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 4,75</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 3,54</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 2,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 2,85</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-11,97%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>34,21%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,31%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-60,6; 87,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-40,54; 123,89</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-55,7; 240,89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-51,94; 203,59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,47; 89,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,98; 94,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,75; 0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 2,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 3,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,54; 0,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 2,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 1,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,09%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,64; 6,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,13; 72,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,67; 65,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,85; 74,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,44; 87,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,66; 53,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,77; 10,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,04; 48,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,95; 35,65</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 5,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 4,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 5,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 4,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; 0,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 5,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 4,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 1,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 4,32</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 200,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,59; 152,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,48; 196,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,37; 146,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,07; 26,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,51; 149,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,4; 113,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,9; 53,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 124,36</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 5,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 6,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 5,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 1,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 9,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 2,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 2,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 6,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 2,7</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,32%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,06; 194,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 233,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,64; 187,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,47; 48,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 220,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,86; 60,13</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; 78,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,04; 161,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,64; 72,7</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,82; 3,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,92; 3,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; -0,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 5,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 3,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,02; 2,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 3,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 1,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,42; 0,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,45%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,42%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,98%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,34%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,46%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,76%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,26; 62,78</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,3; 64,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,81; -8,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,44; 204,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,25; 130,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,86; 96,23</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,02; 73,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,93; 39,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,26; 5,51</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 4,09</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 2,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 3,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 4,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,1; 5,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 1,6</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 2,84</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 3,04</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 1,45</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,45%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,75%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,93; 100,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,31; 66,06</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,32; 81,45</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,67; 83,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,31; 111,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,7; 37,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,75; 58,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,66; 58,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,09; 29,48</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 4,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 3,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 0,86</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,29; 1,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,49</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,07</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 1,58</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 2,33</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,54%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,03%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,46; 144,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,65; 109,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,29; 114,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,3; 25,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,53; 33,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,12; 63,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,25; 54,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,2; 43,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,0; 59,74</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; -0,42</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 3,38</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 2,31</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 0,13</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 1,99</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; -0,96</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 1,85</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 1,5</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,75%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,78%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,01%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,32; -7,9</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 70,14</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,5; 50,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,22; 5,88</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,35; 46,64</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,63; 53,95</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,13; -19,65</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,19; 38,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,34; 32,55</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 1,0</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,66</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 1,45</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 0,55</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,2</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,9</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,49</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,42; 1,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 0,95</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,0%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,09%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,53%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,4; 20,51</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,59; 33,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; 29,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,38; 11,94</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 24,56</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,65; 18,62</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,56; 9,7</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,41; 22,92</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; 19,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 3,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,11</t>
+          <t>-3,3; 3,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 5,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,54</t>
+          <t>-2,55; 3,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 3,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,85</t>
+          <t>-1,81; 2,65</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,91; 108,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,54; 123,89</t>
+          <t>-45,94; 103,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,15; 342,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 203,59</t>
+          <t>-54,14; 199,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,47; 116,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 94,25</t>
+          <t>-34,48; 84,66</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-0,57</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 3,21</t>
+          <t>-3,49; 2,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,07</t>
+          <t>-3,12; 1,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,69</t>
+          <t>-2,72; 1,46</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,85%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,6%</t>
+          <t>-13,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-9,59%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 65,07</t>
+          <t>-43,94; 57,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 53,43</t>
+          <t>-46,82; 48,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,95; 35,65</t>
+          <t>-37,39; 29,98</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,91</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,33</t>
+          <t>-1,39; 5,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,16</t>
+          <t>-1,42; 5,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 4,32</t>
+          <t>-0,46; 4,13</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>48,09%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,89%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 196,72</t>
+          <t>-24,33; 185,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 149,27</t>
+          <t>-20,84; 147,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 124,36</t>
+          <t>-7,52; 118,77</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,15</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,33</t>
+          <t>0,15; 7,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,16</t>
+          <t>-0,88; 5,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 1,95</t>
+          <t>-4,15; 2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 2,27</t>
+          <t>-5,49; 0,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,85</t>
+          <t>-1,15; 3,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,7</t>
+          <t>-2,43; 2,01</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-18,85%</t>
+          <t>-33,44%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>24,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>-3,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 194,19</t>
+          <t>-1,68; 264,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 187,64</t>
+          <t>-19,63; 183,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,47; 48,78</t>
+          <t>-53,09; 64,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 60,13</t>
+          <t>-68,25; 22,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 78,45</t>
+          <t>-18,94; 94,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 72,7</t>
+          <t>-38,48; 53,32</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,48</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; -0,86</t>
+          <t>-9,26; -0,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,54</t>
+          <t>-5,01; 2,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 0,28</t>
+          <t>-5,44; 0,27</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-56,98%</t>
+          <t>-56,6%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>-12,31%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-38,76%</t>
+          <t>-38,71%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,81; -8,06</t>
+          <t>-79,6; -8,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,86; 96,23</t>
+          <t>-60,24; 97,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,26; 5,51</t>
+          <t>-64,02; 6,03</t>
         </is>
       </c>
     </row>
@@ -1722,14 +1722,14 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>-0,17</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,67</t>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,89</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 3,41</t>
+          <t>-3,9; 3,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,6</t>
+          <t>-5,3; 1,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 1,45</t>
+          <t>-3,45; 1,38</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-2,7%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-22,04%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-12,75%</t>
+          <t>-13,4%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 81,45</t>
+          <t>-45,21; 78,95</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 37,77</t>
+          <t>-55,5; 36,58</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 29,48</t>
+          <t>-40,61; 27,9</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,76</t>
+          <t>-1,14; 3,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,49</t>
+          <t>-3,93; 1,71</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,33</t>
+          <t>-1,97; 1,82</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>28,24%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>-10,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 114,55</t>
+          <t>-22,5; 104,29</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 63,28</t>
+          <t>-61,19; 41,93</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 59,74</t>
+          <t>-37,38; 46,11</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,31</t>
+          <t>-5,04; 1,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,25</t>
+          <t>-1,97; 2,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,5</t>
+          <t>-2,98; 0,94</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-22,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-10,72%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-33,5; 50,54</t>
+          <t>-69,45; 21,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 53,95</t>
+          <t>-28,35; 56,26</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 32,55</t>
+          <t>-46,37; 17,62</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,21</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,45</t>
+          <t>-1,38; 1,07</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,9</t>
+          <t>-1,58; 0,61</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 0,95</t>
+          <t>-1,13; 0,58</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>-3,9%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 29,82</t>
+          <t>-23,51; 21,42</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 18,62</t>
+          <t>-27,23; 12,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 19,18</t>
+          <t>-19,6; 11,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A10-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 3,73</t>
+          <t>-3,55; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,84</t>
+          <t>-4,18; 2,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,48</t>
+          <t>-3,13; 3,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 5,7</t>
+          <t>-1,52; 5,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 4,75</t>
+          <t>-2,52; 4,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,52</t>
+          <t>-2,23; 3,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,8</t>
+          <t>-1,44; 3,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 2,68</t>
+          <t>-2,14; 2,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,65</t>
+          <t>-1,82; 2,66</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,91; 108,81</t>
+          <t>-55,16; 136,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 87,32</t>
+          <t>-57,81; 100,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 103,67</t>
+          <t>-43,92; 117,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 342,11</t>
+          <t>-36,9; 355,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,7; 240,89</t>
+          <t>-51,34; 272,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,14; 199,56</t>
+          <t>-47,04; 212,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 116,56</t>
+          <t>-27,32; 119,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,47; 89,39</t>
+          <t>-39,65; 83,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,48; 84,66</t>
+          <t>-32,98; 91,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 0,23</t>
+          <t>-5,67; 0,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,71</t>
+          <t>-3,01; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,82</t>
+          <t>-3,45; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,72</t>
+          <t>-2,97; 2,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 3,19</t>
+          <t>-2,56; 3,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,83</t>
+          <t>-3,31; 1,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 0,47</t>
+          <t>-3,49; 0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 2,35</t>
+          <t>-1,8; 2,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,46</t>
+          <t>-2,68; 1,42</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,64; 6,76</t>
+          <t>-68,61; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 72,94</t>
+          <t>-35,98; 65,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 57,12</t>
+          <t>-41,34; 56,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,85; 74,26</t>
+          <t>-43,68; 65,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,44; 87,02</t>
+          <t>-39,27; 87,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 48,02</t>
+          <t>-47,18; 42,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 10,4</t>
+          <t>-48,73; 7,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,04; 48,01</t>
+          <t>-27,03; 46,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 29,98</t>
+          <t>-38,4; 29,89</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 5,49</t>
+          <t>-1,53; 5,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,39</t>
+          <t>-2,48; 4,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,06</t>
+          <t>-1,64; 4,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,9</t>
+          <t>-2,31; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 0,69</t>
+          <t>-5,59; 0,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 5,02</t>
+          <t>-1,14; 4,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,18</t>
+          <t>-0,97; 4,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,85</t>
+          <t>-2,71; 1,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,13</t>
+          <t>-0,51; 3,95</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 200,65</t>
+          <t>-29,04; 188,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-40,59; 152,15</t>
+          <t>-41,69; 149,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 185,64</t>
+          <t>-28,21; 168,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,37; 146,09</t>
+          <t>-32,61; 138,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-81,07; 26,07</t>
+          <t>-80,12; 23,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 147,26</t>
+          <t>-17,32; 140,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 113,37</t>
+          <t>-16,13; 125,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 53,84</t>
+          <t>-46,7; 45,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 118,77</t>
+          <t>-7,5; 119,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 7,06</t>
+          <t>0,34; 6,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 6,08</t>
+          <t>-0,37; 6,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 5,03</t>
+          <t>-0,66; 5,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 2,62</t>
+          <t>-3,96; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,26</t>
+          <t>0,43; 9,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,95</t>
+          <t>-5,02; 1,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,53</t>
+          <t>-1,2; 3,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,49</t>
+          <t>1,23; 6,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 2,01</t>
+          <t>-2,35; 1,98</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 264,95</t>
+          <t>7,11; 286,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 233,55</t>
+          <t>-8,69; 229,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 183,73</t>
+          <t>-15,32; 214,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 64,95</t>
+          <t>-55,76; 61,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 220,13</t>
+          <t>1,76; 220,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,25; 22,87</t>
+          <t>-66,49; 28,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 94,02</t>
+          <t>-19,91; 88,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,04; 161,29</t>
+          <t>20,08; 161,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 53,32</t>
+          <t>-39,83; 49,12</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,26</t>
+          <t>-6,51; 3,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 3,06</t>
+          <t>-6,85; 3,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -0,85</t>
+          <t>-9,22; -0,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,7</t>
+          <t>-3,3; 5,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 3,37</t>
+          <t>-4,81; 3,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 2,5</t>
+          <t>-4,38; 2,35</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,18</t>
+          <t>-3,71; 2,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 1,85</t>
+          <t>-4,63; 1,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,27</t>
+          <t>-5,35; -0,04</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,26; 62,78</t>
+          <t>-63,56; 70,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 64,76</t>
+          <t>-66,9; 68,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-79,6; -8,12</t>
+          <t>-81,25; -11,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-47,44; 204,02</t>
+          <t>-45,83; 197,61</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-71,25; 130,88</t>
+          <t>-68,76; 106,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-60,24; 97,47</t>
+          <t>-57,82; 89,98</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 73,83</t>
+          <t>-47,1; 62,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,93; 39,1</t>
+          <t>-56,1; 37,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,02; 6,03</t>
+          <t>-62,47; -0,09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,09</t>
+          <t>-3,95; 3,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 2,42</t>
+          <t>-5,65; 2,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 3,29</t>
+          <t>-4,09; 2,97</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 4,0</t>
+          <t>-4,95; 3,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 5,38</t>
+          <t>-4,26; 5,08</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 1,58</t>
+          <t>-5,53; 1,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,84</t>
+          <t>-2,9; 3,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 3,04</t>
+          <t>-3,27; 2,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,38</t>
+          <t>-3,53; 1,66</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 100,63</t>
+          <t>-49,11; 88,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-64,31; 66,06</t>
+          <t>-68,24; 49,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-45,21; 78,95</t>
+          <t>-45,91; 70,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,67; 83,03</t>
+          <t>-53,96; 72,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,31; 111,64</t>
+          <t>-45,19; 106,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 36,58</t>
+          <t>-56,41; 41,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 58,59</t>
+          <t>-36,08; 64,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 58,06</t>
+          <t>-42,59; 54,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 27,9</t>
+          <t>-41,96; 32,8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,81</t>
+          <t>-0,23; 4,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,5</t>
+          <t>-1,34; 3,48</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 3,39</t>
+          <t>-1,23; 3,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,86</t>
+          <t>-3,44; 0,9</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,2</t>
+          <t>-3,45; 1,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,71</t>
+          <t>-4,16; 1,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,07</t>
+          <t>-1,27; 2,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,58</t>
+          <t>-1,73; 1,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,82</t>
+          <t>-2,17; 1,84</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 144,48</t>
+          <t>-6,1; 150,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 109,68</t>
+          <t>-25,43; 109,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,5; 104,29</t>
+          <t>-26,04; 104,15</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-58,3; 25,08</t>
+          <t>-56,15; 29,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,53; 33,34</t>
+          <t>-57,31; 31,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-61,19; 41,93</t>
+          <t>-60,9; 40,84</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 54,82</t>
+          <t>-23,79; 56,33</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 43,6</t>
+          <t>-32,75; 44,04</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-37,38; 46,11</t>
+          <t>-38,63; 48,09</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -0,42</t>
+          <t>-4,86; -0,65</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,38</t>
+          <t>-1,65; 3,55</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 1,1</t>
+          <t>-4,84; 1,25</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 0,13</t>
+          <t>-4,39; 0,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,99</t>
+          <t>-2,95; 1,69</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,39</t>
+          <t>-2,19; 2,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,96; -0,96</t>
+          <t>-3,79; -0,84</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,85</t>
+          <t>-1,4; 1,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 0,94</t>
+          <t>-3,08; 1,1</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-68,32; -7,9</t>
+          <t>-68,13; -12,16</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 70,14</t>
+          <t>-23,57; 82,68</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-69,45; 21,54</t>
+          <t>-67,96; 22,13</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-62,22; 5,88</t>
+          <t>-61,88; 3,07</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-42,35; 46,64</t>
+          <t>-43,43; 38,72</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 56,26</t>
+          <t>-30,92; 48,01</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-60,13; -19,65</t>
+          <t>-58,49; -16,5</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 38,4</t>
+          <t>-21,15; 38,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 17,62</t>
+          <t>-46,85; 20,81</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 1,0</t>
+          <t>-1,2; 1,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,66</t>
+          <t>-0,57; 1,62</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,07</t>
+          <t>-1,42; 1,06</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 0,55</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,2</t>
+          <t>-1,06; 1,17</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 0,61</t>
+          <t>-1,71; 0,57</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,49</t>
+          <t>-1,08; 0,46</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,16</t>
+          <t>-0,44; 1,16</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,58</t>
+          <t>-1,09; 0,59</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 20,51</t>
+          <t>-20,75; 21,11</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-10,59; 33,57</t>
+          <t>-8,99; 34,73</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 21,42</t>
+          <t>-24,63; 21,54</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 11,94</t>
+          <t>-26,84; 11,11</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 24,56</t>
+          <t>-18,37; 23,83</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 12,29</t>
+          <t>-28,83; 11,78</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 9,7</t>
+          <t>-18,91; 9,16</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 22,92</t>
+          <t>-7,72; 23,62</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 11,72</t>
+          <t>-18,75; 11,46</t>
         </is>
       </c>
     </row>
